--- a/biology/Zoologie/Hydrosaurus_pustulatus/Hydrosaurus_pustulatus.xlsx
+++ b/biology/Zoologie/Hydrosaurus_pustulatus/Hydrosaurus_pustulatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Agame voilier des Philippines (Hydrosaurus pustulatus) est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Agame voilier des Philippines (Hydrosaurus pustulatus) est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique des Philippines[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique des Philippines. 
 Elle se rencontre à Luçon, à Polillo, à Mindoro, à Negros, à Panay, à Bohol, à Dinagat et à Mindanao.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce lézard ovipare qui peut atteindre un mètre de long. Grâce à ses doigts aplatis, il est un bon nageur. En grandissant, ils arborent des reflets bleu/violet sur le corps. Les mâles ont une grande crête partant du bas du dos jusqu'au milieu de sa queue formant un voile d'où son nom, celle-ci étant moins développée chez les femelles.
 Il est omnivore, se nourrissant de fruits, de feuilles, de fleurs, d'insectes et autres petits animaux. Il vit près des rivières dans les forêts tropicales des Philippines. 
@@ -576,7 +592,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Selon Reptarium Reptile Database (15 mai 2014)[réf. incomplète] :
 Hydrosaurus amboinensis (Schlosser, 1768)
@@ -609,7 +627,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Eschscholtz, 1829 : Zoologischer Atlas, enthaltend Abbildungen und Beschreibungen neuer Thierarten, wehrend des Flottcapitains von Kotzebue zweiter Reise um die Welt, auf der Russisch-Kaiserlichen Kriegsschlupp Predpriaetiâ in den Jahren 1823-1826 (texte intégral).</t>
         </is>
